--- a/inputs/Glossary.xlsx
+++ b/inputs/Glossary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FCA2E1E-4567-4453-B8CD-05EC67CDB7EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE40F717-81ED-493D-AE12-3F0A822DECDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10420" xr2:uid="{C719B5A9-F4C0-4B1A-8842-CA0D1B83A7B7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Behavioural selection</t>
   </si>
@@ -48,9 +48,6 @@
     <t>COM-B</t>
   </si>
   <si>
-    <t>COM-B diagnosis</t>
-  </si>
-  <si>
     <t>COM-B domain</t>
   </si>
   <si>
@@ -60,15 +57,6 @@
     <t>Gap Analysis</t>
   </si>
   <si>
-    <t>Practitioners</t>
-  </si>
-  <si>
-    <t>Behavioural diagnosis</t>
-  </si>
-  <si>
-    <t>Entry point</t>
-  </si>
-  <si>
     <t>A part of development of a behaviour change intervention that involves identifying whose behaviour(s) to target and the specific behaviours involved.</t>
   </si>
   <si>
@@ -84,19 +72,37 @@
     <t>Behaviour Change Wheel (BCW)</t>
   </si>
   <si>
-    <t>APEASE</t>
-  </si>
-  <si>
     <t>BCT</t>
   </si>
   <si>
     <t>Behavioural systems map</t>
   </si>
   <si>
-    <t>Theoretical domains framework</t>
-  </si>
-  <si>
     <t>Topic-specific knowledge</t>
+  </si>
+  <si>
+    <t>A behaviour change intervention development and evaluation framework that links an analysis of the behaviour change problem, mechanisms of action for addressing it, and intervention functions and policies to target those mechanisms of action. It also includes a set of criteria for evaluation at all stages in the process.</t>
+  </si>
+  <si>
+    <t>APEASE criteria</t>
+  </si>
+  <si>
+    <t>A set of criteria for evaluating interventions that forms part of the Behaviour Change Wheel.</t>
+  </si>
+  <si>
+    <t>A model of behaviour in which behaviour is part of a causal system in which a behaviour is enacted when capability and opportunity are present and motivation to enact the behaviour is stronger than motivation to enact any other behaviour.</t>
+  </si>
+  <si>
+    <t>Entry point for an intervention</t>
+  </si>
+  <si>
+    <t>COM-B diagnosis/behavioural diagnosis</t>
+  </si>
+  <si>
+    <t>Behaviour change practitioner</t>
+  </si>
+  <si>
+    <t>Theoretical Domains Framework</t>
   </si>
 </sst>
 </file>
@@ -461,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0EBE7D-69B8-455C-B825-712F8E52CADE}">
-  <dimension ref="B2:C19"/>
+  <dimension ref="B2:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -488,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -496,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -504,77 +510,81 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
